--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eff0102c2a197be2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dbms-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{BD04BAC7-FA24-4A9D-947F-5A170B18FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0BA8523-AD2C-4A85-AE6C-7E4CAA4B15A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D368F4D-2F09-4620-9515-2E4FD984E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B340C1A7-2D47-4462-810B-FB1C4EA04FD8}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>COMPUTER SCIENCE AND ENGINEERING (CYBER SECURITY)</t>
   </si>
   <si>
-    <t>ELECTRONICS AND TELECOMMUNICAT ION ENGINEERING</t>
-  </si>
-  <si>
     <t>MECHANICAL ENGINEERING</t>
   </si>
   <si>
@@ -133,13 +130,16 @@
   </si>
   <si>
     <t>branch_id</t>
+  </si>
+  <si>
+    <t>ELECTRONICS AND TELECOMMUNICATION ENGINEERING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,10 +528,10 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
@@ -545,44 +541,44 @@
     <col min="9" max="9" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -597,18 +593,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -623,18 +619,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -649,18 +645,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -675,18 +671,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -701,18 +697,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -727,18 +723,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -750,21 +746,21 @@
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -776,21 +772,21 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -805,18 +801,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -831,18 +827,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -857,24 +853,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -883,24 +879,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -909,18 +905,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -932,21 +928,21 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -961,18 +957,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -984,21 +980,21 @@
         <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1013,18 +1009,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1039,18 +1035,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1062,21 +1058,21 @@
         <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
